--- a/biology/Zoologie/Bothrops_lutzi/Bothrops_lutzi.xlsx
+++ b/biology/Zoologie/Bothrops_lutzi/Bothrops_lutzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bothrops lutzi est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bothrops lutzi est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans le Nord du Minas Gerais, dans l'Ouest de Bahia, dans l'Est de Goiás, dans le Tocantins, dans le Piauí et dans l'Ouest du Pernambouc. Sa présence est incertaine dans l'État de São Paulo[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans le Nord du Minas Gerais, dans l'Ouest de Bahia, dans l'Est de Goiás, dans le Tocantins, dans le Piauí et dans l'Ouest du Pernambouc. Sa présence est incertaine dans l'État de São Paulo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Bothrops lutzi[2] mesure 67,5 cm dont 7,5 cm pour la queue. C'est un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Bothrops lutzi mesure 67,5 cm dont 7,5 cm pour la queue. C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été nommée en l'honneur d'Adolpho Lutz qui a collecté l'holotype[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été nommée en l'honneur d'Adolpho Lutz qui a collecté l'holotype.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Miranda-Ribeiro, 1915 : Lachesis lutzi. Archivos do Museu Nacional do Rio de Janeiro, vol. 17, no 3, p. 1 (texte intégral).</t>
         </is>
